--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Lab\OC\p4_hattab_nassim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Lab\OC\p4_hattab_nassim\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="615" windowWidth="27855" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1292,6 +1292,9 @@
     </r>
   </si>
   <si>
+    <t>Performance</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">L'attribut </t>
     </r>
@@ -1331,22 +1334,41 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>utilisation des images de texte.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Le texte des attributs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>alt</t>
+      <t xml:space="preserve">Le texte </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alternatif</t>
     </r>
     <r>
       <rPr>
@@ -1356,6 +1378,200 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> des images ne décrit pas correctement les images et dégrade fortement l'accessibilité aux personnes qui utilisent un lecteur d'écran ou qui ont une connexion lente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Certaines images avec un type de fichier non adapté au Web</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'utilisation d'images au format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> souvent très volumineuse en taille de fichier impacte les performances et pénalise les utilisateurs avec une connexion lente, le format</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n'est pas recommandé, car la prise en charge par les navigateurs est potentiellement limitée, il faut généralement l'éviter pour le contenu web.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Media/Formats/Image_types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les type de fichier recommandé par MDN sont les suivante:
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>APNG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pour les animations sans perte de qualité.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AVIF:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un format avec de bonnes performances et sans licence commerciale.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GIF:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Pour les images simples et les animations.
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> JPEG: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Un format d'images compressées avec pertes. C'est le format le plus populaire et parmi les mieux pris en charge.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PNG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pourra être préféré à JPEG lorsqu'on a besoin d'une meilleure précision ou de transparence.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SVG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Un format d'image vectoriel idéal pour les éléments d'interface utilisateur, les icônes ou diagrammes qui nécessitent de s'afficher précisément quelle que soit l'échelle.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un excellent choix pour les images statiques ou animées. Les taux de compression de ce format sont meilleurs que pour PNG ou JPEG.</t>
     </r>
   </si>
 </sst>
@@ -1477,7 +1693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1524,6 +1740,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2002,10 +2221,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>54</v>
@@ -2017,13 +2236,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
@@ -3150,8 +3381,9 @@
     <hyperlink ref="F7" r:id="rId9"/>
     <hyperlink ref="F6" r:id="rId10"/>
     <hyperlink ref="F11" r:id="rId11" location="fallbacks"/>
+    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId12"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Catégorie</t>
   </si>
@@ -355,41 +355,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> est complètement vide, et ne fournit aucune description aux moteurs de recherche et aux utilisateurs lors des résultats au sein des SERP.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Utilisez toujours un attribut</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sur l’élément html. Il sera hérité par tous les autres éléments, et ainsi il fixera la langue par défaut de tout le texte.</t>
     </r>
   </si>
   <si>
@@ -1177,8 +1142,378 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Il est très important que le texte du lien ait un sens.Le texte du lien doit à lui seul transmettre la fonction et le but du lien. Il doit également être unique et facile à exprimer à haute voix. Il faut tenir compte des ces directives lors de la rédaction du texte du lens:                                                                                           </t>
+    <t xml:space="preserve"> Accessibilité</t>
+  </si>
+  <si>
+    <t>Le texte du lien vers la page contact n'explique pas clairement la fonction et le but du lien. Cela conduit à une dégradation de l'expérience utilisateur et nuit de manière significative  l'accessibilité pour les utilisateurs des lecteurs d'écran.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">alt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">doit être présent sur toutes les images, il est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>incroyablement utile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour l'accessibilité, les lecteurs d'écran lisent cette description à leurs utilisateurs pour qu'ils sachent ce que signifie l'image. Le texte </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> est également affiché sur la page si l'image ne peut pas être chargée pour une raison quelconque : par exemple, erreurs de réseau, blocage du contenu ou linkrot. Également, selon WCAG, si l'utilisation du texte permet d'obtenir le même effet visuel ex (texte sur une image) alors on doit présenter les informations sous forme de texte plutôt que d'utiliser une image.</t>
+    </r>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'utilisation d'images au format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> souvent très volumineuse en taille de fichier impacte les performances et pénalise les utilisateurs avec une connexion lente, le format</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n'est pas recommandé, car la prise en charge par les navigateurs est potentiellement limitée, il faut généralement l'éviter pour le contenu web.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Media/Formats/Image_types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les type de fichier recommandé par MDN sont les suivante:
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>APNG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pour les animations sans perte de qualité.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AVIF:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un format avec de bonnes performances et sans licence commerciale.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GIF:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Pour les images simples et les animations.
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> JPEG: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Un format d'images compressées avec pertes. C'est le format le plus populaire et parmi les mieux pris en charge.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PNG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pourra être préféré à JPEG lorsqu'on a besoin d'une meilleure précision ou de transparence.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SVG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Un format d'image vectoriel idéal pour les éléments d'interface utilisateur, les icônes ou diagrammes qui nécessitent de s'afficher précisément quelle que soit l'échelle.
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un excellent choix pour les images statiques ou animées. Les taux de compression de ce format sont meilleurs que pour PNG ou JPEG.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utilisez toujours un attribut</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sur l’élément html pour déclarer la langue du texte par défaut dans la page. Il sera hérité par tous les autres éléments, et ainsi il fixera la langue par défaut de tout le texte. Quand la page contient du contenu dans une autre langue, ajoutez un attribut de langue à un élément qui encadre ce contenu. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">atl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sur les balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">img, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>utilisation des</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> images de texte.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il est très important que le texte du lien ait un sens.Le texte du lien doit à lui seul transmettre la fonction et le but du lien. Il doit également être unique et facile à exprimer à haute voix. Il faut tenir compte des ces directives lors de la rédaction du texte du lens:                                                                                           
+</t>
     </r>
     <r>
       <rPr>
@@ -1224,139 +1559,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Accessibilité</t>
-  </si>
-  <si>
-    <t>Le texte du lien vers la page contact n'explique pas clairement la fonction et le but du lien. Cela conduit à une dégradation de l'expérience utilisateur et nuit de manière significative  l'accessibilité pour les utilisateurs des lecteurs d'écran.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L'attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">alt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">doit être présent sur toutes les images, il est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>incroyablement utile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour l'accessibilité, les lecteurs d'écran lisent cette description à leurs utilisateurs pour qu'ils sachent ce que signifie l'image. Le texte </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>alt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> est également affiché sur la page si l'image ne peut pas être chargée pour une raison quelconque : par exemple, erreurs de réseau, blocage du contenu ou linkrot. Également, selon WCAG, si l'utilisation du texte permet d'obtenir le même effet visuel ex (texte sur une image) alors on doit présenter les informations sous forme de texte plutôt que d'utiliser une image.</t>
-    </r>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L'attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">atl </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sur les balises </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">img, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>utilisation des images de texte.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Le texte </t>
     </r>
@@ -1377,201 +1579,200 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> des images ne décrit pas correctement les images et dégrade fortement l'accessibilité aux personnes qui utilisent un lecteur d'écran ou qui ont une connexion lente.</t>
-    </r>
-  </si>
-  <si>
-    <t>Certaines images avec un type de fichier non adapté au Web</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L'utilisation d'images au format </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> souvent très volumineuse en taille de fichier impacte les performances et pénalise les utilisateurs avec une connexion lente, le format</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> n'est pas recommandé, car la prise en charge par les navigateurs est potentiellement limitée, il faut généralement l'éviter pour le contenu web.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/Media/Formats/Image_types</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les type de fichier recommandé par MDN sont les suivante:
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>APNG:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pour les animations sans perte de qualité.
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AVIF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Un format avec de bonnes performances et sans licence commerciale.
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GIF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Pour les images simples et les animations.
-•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> JPEG: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Un format d'images compressées avec pertes. C'est le format le plus populaire et parmi les mieux pris en charge.
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PNG:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pourra être préféré à JPEG lorsqu'on a besoin d'une meilleure précision ou de transparence.
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SVG:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Un format d'image vectoriel idéal pour les éléments d'interface utilisateur, les icônes ou diagrammes qui nécessitent de s'afficher précisément quelle que soit l'échelle.
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>WebP:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Un excellent choix pour les images statiques ou animées. Les taux de compression de ce format sont meilleurs que pour PNG ou JPEG.</t>
+      <t xml:space="preserve"> des images ne décrit pas correctement les images et dégrade fortement l'accessibilité aux personnes qui utilisent un lecteur d'écran ou qui ont une connexion lente. Également, les images de texte sortent de l'écran sur les resolutions mobile. Une fois redimensionnée pour les adapter aux petites résolutions, le texte devient illisible.</t>
+    </r>
+  </si>
+  <si>
+    <t>La présentation visuelle de certains elements texte ne fousrnissent pas suffisament de contraste entre le texte et son arrière-plan pour qu'il puisse être lu par des personnes ayant une vision modérément basse.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La présentation visuelle du texte et des images de texte a un rapport de contraste d'au moins 4,5:1, à l'exception des éléments suivants :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Texte de grande taille</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Le texte à grande échelle et les images de texte à grande échelle ont un rapport de contraste d'au moins 3:1 ;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accessoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Le texte ou les images de texte qui font partie d'un composant d'interface utilisateur inactif , qui sont purement décoratifs , qui ne sont visibles par personne, ou qui font partie d'une image qui contient un autre contenu visuel significatif, n'ont aucune exigence de contraste.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Logotypes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Le texte qui fait partie d'un logo ou d'un nom de marque n'a aucune exigence de contraste.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/WCAG21/Understanding/contrast-minimum.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ratio de contraste </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sur certains elements texte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Certaines </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>images avec un type de fichier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> non adapté au Web</t>
+    </r>
+  </si>
+  <si>
+    <t>https://web.dev/labels-and-text-alternatives/#label-buttons-and-links</t>
+  </si>
+  <si>
+    <r>
+      <t>Les</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> liens des réseaux sociaux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">dans le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> ne contient aucun nom ou description accessible</t>
+    </r>
+  </si>
+  <si>
+    <t>les utilisateurs de lecteur d'écran n'ont aucune description des liens symbolisés par une icône qui ne contient aucun nom ou description.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans le cadre d'utilisation des liens ou des buttons présenté visuellement par des icônes ou des images, il est recommandé d'ajouter un attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aria-label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour donner une description de la fonction du lien.</t>
     </r>
   </si>
 </sst>
@@ -1962,13 +2163,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="62.109375" customWidth="1"/>
     <col min="4" max="4" width="91.88671875" customWidth="1"/>
@@ -2025,10 +2226,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>10</v>
@@ -2045,10 +2246,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
@@ -2066,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -2083,10 +2284,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
@@ -2098,36 +2299,36 @@
     </row>
     <row r="6" spans="1:26" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -2187,7 +2388,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -2198,36 +2399,36 @@
     </row>
     <row r="11" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -2238,39 +2439,63 @@
     </row>
     <row r="13" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
@@ -3382,8 +3607,10 @@
     <hyperlink ref="F6" r:id="rId10"/>
     <hyperlink ref="F11" r:id="rId11" location="fallbacks"/>
     <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14" location="label-buttons-and-links"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
+  <pageSetup orientation="landscape" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Catégorie</t>
   </si>
@@ -954,9 +954,6 @@
   </si>
   <si>
     <t>https://blog.logrocket.com/the-complete-best-practices-for-minifying-css/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte du lien vers la page contact dans menu principal </t>
   </si>
   <si>
     <r>
@@ -1749,9 +1746,6 @@
     </r>
   </si>
   <si>
-    <t>les utilisateurs de lecteur d'écran n'ont aucune description des liens symbolisés par une icône qui ne contient aucun nom ou description.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Dans le cadre d'utilisation des liens ou des buttons présenté visuellement par des icônes ou des images, il est recommandé d'ajouter un attribut </t>
     </r>
@@ -1773,6 +1767,151 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> pour donner une description de la fonction du lien.</t>
+    </r>
+  </si>
+  <si>
+    <t>les utilisateurs de lecteur d'écran n'ont aucune description de la fonction des liens symbolisés par une icône et qui ne contient aucun nom ou description textuel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">texte du lien </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vers la page contact dans menu principal </t>
+    </r>
+  </si>
+  <si>
+    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Espacement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>du texte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>des liens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> des rebriques </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partenaires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Annuaires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> dans le</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> footer sur mobile </t>
+    </r>
+  </si>
+  <si>
+    <t>Le manque d'espacement entre les elements tactiles comme les liens et les buttons rend les pages moins convivial pour les utilisateurs mobile, 
+De nombreux moteurs de recherche classent les pages en fonction de leur compatibilité avec les mobiles.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les éléments interactifs tels que les boutons et les liens doivent être suffisamment grands </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(48px / 48px)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et avoir suffisamment d'espace autour d'eux pour être assez faciles à appuyer sans se chevaucher sur d'autres éléments.</t>
     </r>
   </si>
 </sst>
@@ -2164,13 +2303,13 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="62.109375" customWidth="1"/>
     <col min="4" max="4" width="91.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
@@ -2229,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>10</v>
@@ -2319,16 +2458,16 @@
     </row>
     <row r="7" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -2399,22 +2538,22 @@
     </row>
     <row r="11" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -2422,13 +2561,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -2439,22 +2578,22 @@
     </row>
     <row r="13" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2462,19 +2601,19 @@
         <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2482,28 +2621,38 @@
         <v>38</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -3609,8 +3758,9 @@
     <hyperlink ref="F13" r:id="rId12"/>
     <hyperlink ref="F14" r:id="rId13"/>
     <hyperlink ref="F15" r:id="rId14" location="label-buttons-and-links"/>
+    <hyperlink ref="F16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId15"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Catégorie</t>
   </si>
@@ -437,9 +437,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SEO / Accessiblité </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Les balises </t>
     </r>
@@ -886,70 +883,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (contact)  dû à l'absence des versions minifier des fichiers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pour l'optimisation des temps de chargements des pages Il est recommandé d'utiliser des versions </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">minifiées </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(compressées) des fichiers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, la minification des fichiers consiste à retirer tous les esapces, tabulsations, saut de line et les commentaires qui ne servent que pendant le développement.</t>
     </r>
   </si>
   <si>
@@ -1912,6 +1845,92 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> et avoir suffisamment d'espace autour d'eux pour être assez faciles à appuyer sans se chevaucher sur d'autres éléments.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Peformance </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour l'optimisation des temps de chargements des pages Il est recommandé d'utiliser des versions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">minifiées </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(compressées) des fichiers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, la minification des fichiers consiste à retirer tous les esapces, tabulsations, saut de line et les commentaires qui ne servent que pendant le développement. Également il est recommandé d'utiliser un CDN (content delivery network) pour le chargement des différentes librairies Javascript et CSS. Le principal avantage d'un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> est l'amélioration des temps de chargement du site web en rapprochant le contenu des visiteurs du site à l'aide d'un serveur CDN situé à proximité (entre autres optimisations), ces derniers peuvent bénéficier de temps de chargement plus courts au niveau des pages.</t>
     </r>
   </si>
 </sst>
@@ -2302,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2368,11 +2387,9 @@
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2405,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
@@ -2406,7 +2423,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -2423,51 +2440,49 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -2527,7 +2542,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -2538,36 +2553,36 @@
     </row>
     <row r="11" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -2578,62 +2593,60 @@
     </row>
     <row r="13" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2641,17 +2654,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Catégorie</t>
   </si>
@@ -977,99 +977,6 @@
   </si>
   <si>
     <t>https://usability.yale.edu/web-accessibility/articles/links#fallbacks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pour l'optimisation des performances et les temps de chargements pour les utlisateurs et les robots d'indexation. Les balises script doivent être placées à la fin du document HTML et avant la fermeture de la balise    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt; /body&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, les balises script doivent avoir un attribut</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>defer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, cet attribut  indique au navigateur de ne pas attendre le script, au lieu de cela, le navigateur continuera à traiter le HTML, à construire le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DOM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Document Object Model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) et charger le script “en arrière-plan”, puis s'exécute lorsque le DOM est entièrement construit.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> Accessibilité</t>
@@ -1730,65 +1637,231 @@
     </r>
   </si>
   <si>
-    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Espacement </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>du texte</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+    <t xml:space="preserve">Peformance </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour l'optimisation des temps de chargements des pages Il est recommandé d'utiliser des versions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">minifiées </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(compressées) des fichiers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, la minification des fichiers consiste à retirer tous les esapces, tabulsations, saut de line et les commentaires qui ne servent que pendant le développement. Également il est recommandé d'utiliser un CDN (content delivery network) pour le chargement des différentes librairies Javascript et CSS. Le principal avantage d'un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> est l'amélioration des temps de chargement du site web en rapprochant le contenu des visiteurs du site à l'aide d'un serveur CDN situé à proximité (entre autres optimisations), ces derniers peuvent bénéficier de temps de chargement plus courts au niveau des pages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Les liens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> des rebriques </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partenaires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Annuaires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> dans le</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> footer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour l'optimisation des performances et les temps de chargements pour les utlisateurs et les robots d'indexation. Les balises script doivent être placées à la fin du document HTML et avant la fermeture de la balise   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt; /body&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, les balises script doivent avoir un attribut</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>des liens</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> des rebriques </t>
-    </r>
-    <r>
-      <rPr>
         <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Partenaires</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, cet attribut  indique au navigateur de ne pas attendre le script, au lieu de cela, le navigateur continuera à traiter le HTML, à construire le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -1798,139 +1871,126 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Annuaires</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> dans le</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> footer sur mobile </t>
-    </r>
-  </si>
-  <si>
-    <t>Le manque d'espacement entre les elements tactiles comme les liens et les buttons rend les pages moins convivial pour les utilisateurs mobile, 
-De nombreux moteurs de recherche classent les pages en fonction de leur compatibilité avec les mobiles.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les éléments interactifs tels que les boutons et les liens doivent être suffisamment grands </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(48px / 48px)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et avoir suffisamment d'espace autour d'eux pour être assez faciles à appuyer sans se chevaucher sur d'autres éléments.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Peformance </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pour l'optimisation des temps de chargements des pages Il est recommandé d'utiliser des versions </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">minifiées </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(compressées) des fichiers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, la minification des fichiers consiste à retirer tous les esapces, tabulsations, saut de line et les commentaires qui ne servent que pendant le développement. Également il est recommandé d'utiliser un CDN (content delivery network) pour le chargement des différentes librairies Javascript et CSS. Le principal avantage d'un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CDN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> est l'amélioration des temps de chargement du site web en rapprochant le contenu des visiteurs du site à l'aide d'un serveur CDN situé à proximité (entre autres optimisations), ces derniers peuvent bénéficier de temps de chargement plus courts au niveau des pages.</t>
+      <t>Document Object Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) et charger le script “en arrière-plan”, puis s'exécute lorsque le DOM est entièrement construit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La stratégie de "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>netlinking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" n'est pas très performante, l'emplacement dans le footer et l'utilisation abusive des mots clés comme texte d'encrage dans la partie annuaire peut être considérée comme du </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> par Google. Également, les liens sont de mauvais qualités et la plupart des sites sont hors ligne!.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.rgdesign.fr/blog/le-netlinking-evolue-voici-les-bonnes-pratiques-du-netlinking-en-2014/</t>
+  </si>
+  <si>
+    <r>
+      <t>La qualité</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>des liens est primordial dans une stratégie de "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>référencement naturel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>". Egalement il faudra veiller à l'emplacement des liens dans la page.
+Les liens dans le footers et dans les pages partenaires sont à bannir au profit des liens dans le corp d’une page ou dans le milieu d’un texte.
+L’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ancre de texte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> est aussi un facteur à ne pas négliger, celle-ci ne doit pas être sur-optimisée. Celui-ci doit être cohérent avec la page vers laquelle il pointe, cependant attention à ne pas utiliser toujours la même ancre par exemple.</t>
     </r>
   </si>
 </sst>
@@ -2321,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2447,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="4" t="s">
@@ -2453,7 +2513,7 @@
     </row>
     <row r="6" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>42</v>
@@ -2462,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
@@ -2473,7 +2533,7 @@
     </row>
     <row r="7" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>34</v>
@@ -2482,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -2524,9 +2584,7 @@
       <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2553,16 +2611,16 @@
     </row>
     <row r="11" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
@@ -2576,13 +2634,13 @@
         <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -2593,22 +2651,22 @@
     </row>
     <row r="13" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2616,19 +2674,19 @@
         <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,20 +2694,20 @@
         <v>37</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2657,16 +2715,16 @@
         <v>69</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -74,12 +74,6 @@
     <t>https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links</t>
   </si>
   <si>
-    <t>Utilisation de texte ou de lien cachés en vue de manipuler le classement dans les résultats de recherche est considérée comme une technique trompeuse par Google, et les pages peuvent être supprimé des résultats de recherche.</t>
-  </si>
-  <si>
-    <t>Utilisation des mots-clés cachés, text blanc sur un fond blanc avec la taille de police sur 1px.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">La balise </t>
     </r>
@@ -1991,6 +1985,33 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> est aussi un facteur à ne pas négliger, celle-ci ne doit pas être sur-optimisée. Celui-ci doit être cohérent avec la page vers laquelle il pointe, cependant attention à ne pas utiliser toujours la même ancre par exemple.</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilisation de texte et des liens en tentant de les dissimuler en vue de manipuler le classement dans les résultats de recherche est considérée comme une technique trompeuse par Google, et les pages peuvent être supprimé des résultats de recherche.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilisation des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mots-clés cachés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, text gris clair sur un fond blanc avec la taille de police sur 1px.</t>
     </r>
   </si>
 </sst>
@@ -2112,13 +2133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2144,9 +2162,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2379,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2397,22 +2412,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -2437,298 +2452,298 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="16"/>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>72</v>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2736,7 +2751,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2744,7 +2759,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2752,7 +2767,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2760,7 +2775,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2768,7 +2783,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2776,7 +2791,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2784,7 +2799,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2792,7 +2807,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2807,46 +2822,11 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3810,30 +3790,23 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F14" r:id="rId6"/>
     <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F12" r:id="rId8"/>
-    <hyperlink ref="F7" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-    <hyperlink ref="F11" r:id="rId11" location="fallbacks"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14" location="label-buttons-and-links"/>
-    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9" location="fallbacks"/>
+    <hyperlink ref="F8" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12" location="label-buttons-and-links"/>
+    <hyperlink ref="F12" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId16"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1878,6 +1878,36 @@
     </r>
   </si>
   <si>
+    <t>https://www.rgdesign.fr/blog/le-netlinking-evolue-voici-les-bonnes-pratiques-du-netlinking-en-2014/</t>
+  </si>
+  <si>
+    <t>Utilisation de texte et des liens en tentant de les dissimuler en vue de manipuler le classement dans les résultats de recherche est considérée comme une technique trompeuse par Google, et les pages peuvent être supprimé des résultats de recherche.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilisation des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mots-clés cachés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, text gris clair sur un fond blanc avec la taille de police sur 1px.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>La stratégie de "</t>
     </r>
@@ -1898,30 +1928,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">" n'est pas très performante, l'emplacement dans le footer et l'utilisation abusive des mots clés comme texte d'encrage dans la partie annuaire peut être considérée comme du </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> par Google. Également, les liens sont de mauvais qualités et la plupart des sites sont hors ligne!.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.rgdesign.fr/blog/le-netlinking-evolue-voici-les-bonnes-pratiques-du-netlinking-en-2014/</t>
+      <t>" n'est pas très performante, l'emplacement dans le footer et l'utilisation abusive des mots clés comme texte d'encrage dans la partie annuaire peut être considérée comme une mauvaise pratique par Google. Également, les liens sont de mauvais qualités et la plupart des sites sont hors ligne!.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1944,7 +1952,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>des liens est primordial dans une stratégie de "</t>
+      <t>des liens et leur emplacement dans la page est primordial dans une stratégie de "</t>
     </r>
     <r>
       <rPr>
@@ -1963,7 +1971,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>". Egalement il faudra veiller à l'emplacement des liens dans la page.
+      <t>".
 Les liens dans le footers et dans les pages partenaires sont à bannir au profit des liens dans le corp d’une page ou dans le milieu d’un texte.
 L’</t>
     </r>
@@ -1985,33 +1993,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> est aussi un facteur à ne pas négliger, celle-ci ne doit pas être sur-optimisée. Celui-ci doit être cohérent avec la page vers laquelle il pointe, cependant attention à ne pas utiliser toujours la même ancre par exemple.</t>
-    </r>
-  </si>
-  <si>
-    <t>Utilisation de texte et des liens en tentant de les dissimuler en vue de manipuler le classement dans les résultats de recherche est considérée comme une technique trompeuse par Google, et les pages peuvent être supprimé des résultats de recherche.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utilisation des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>mots-clés cachés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, text gris clair sur un fond blanc avec la taille de police sur 1px.</t>
     </r>
   </si>
 </sst>
@@ -2397,7 +2378,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2514,10 +2495,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>34</v>
@@ -2657,16 +2638,16 @@
         <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -2375,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2387,7 @@
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="62.109375" customWidth="1"/>
     <col min="4" max="4" width="91.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -2432,295 +2432,295 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
+    <row r="2" spans="1:26" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
+      <c r="F5" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
+      <c r="B7" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2795,14 +2795,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3770,22 +3763,21 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F15" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F5" r:id="rId5"/>
-    <hyperlink ref="F14" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F7" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9" location="fallbacks"/>
-    <hyperlink ref="F8" r:id="rId10"/>
-    <hyperlink ref="F11" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12" location="label-buttons-and-links"/>
-    <hyperlink ref="F12" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9" location="fallbacks"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="F10" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12" location="label-buttons-and-links"/>
+    <hyperlink ref="F11" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId14"/>
